--- a/phy331/Grades/grades_report_2023.xlsx
+++ b/phy331/Grades/grades_report_2023.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS331/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCFA623F-892E-E445-A4B3-9B79A5F12D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2E363-2678-1B4C-83CD-5616BC8CC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13420" yWindow="7600" windowWidth="20340" windowHeight="14520" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t>Average</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>Hwk5</t>
-  </si>
-  <si>
-    <t>Hwk6</t>
-  </si>
-  <si>
-    <t>Hwk7</t>
   </si>
   <si>
     <t>0510</t>
@@ -410,9 +404,6 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -443,9 +434,6 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,6 +441,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="13" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,20 +856,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.83203125" customWidth="1"/>
-    <col min="2" max="9" width="14.83203125" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="2" max="7" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
@@ -895,310 +889,365 @@
         <v>15</v>
       </c>
       <c r="G1" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B2" s="5">
+        <v>5.8</v>
+      </c>
+      <c r="C2" s="5">
+        <v>36</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>83</v>
+      </c>
+      <c r="F2" s="5">
+        <v>26</v>
+      </c>
+      <c r="G2" s="4">
+        <f>$G$12*(B2/$B$12+C2/$C$12+D2/$D$12+E2/$E$12+F2/$F$12)/(SUM($B$16:$F$16))</f>
+        <v>1.1480000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="10">
         <v>1983</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="5">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>96</v>
+      </c>
+      <c r="D3" s="5">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5">
+        <v>93</v>
+      </c>
+      <c r="F3" s="5">
+        <v>57</v>
+      </c>
+      <c r="G3" s="4">
+        <f t="shared" ref="G3:G10" si="0">$G$12*(B3/$B$12+C3/$C$12+D3/$D$12+E3/$E$12+F3/$F$12)/(SUM($B$16:$F$16))</f>
+        <v>2.8697142857142857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="10">
         <v>2057</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="5">
+        <v>11.5</v>
+      </c>
+      <c r="C4" s="5">
+        <v>51</v>
+      </c>
+      <c r="D4" s="5">
+        <v>55</v>
+      </c>
+      <c r="E4" s="5">
+        <v>73</v>
+      </c>
+      <c r="F4" s="5">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4">
+        <f t="shared" si="0"/>
+        <v>2.0004285714285714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="10">
         <v>2418</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="5">
+        <v>20</v>
+      </c>
+      <c r="C5" s="5">
+        <v>98</v>
+      </c>
+      <c r="D5" s="5">
+        <v>65</v>
+      </c>
+      <c r="E5" s="5">
+        <v>92</v>
+      </c>
+      <c r="F5" s="5">
+        <v>59</v>
+      </c>
+      <c r="G5" s="4">
+        <f t="shared" si="0"/>
+        <v>2.887142857142857</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="10">
         <v>3915</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="5">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C6" s="5">
+        <v>88</v>
+      </c>
+      <c r="D6" s="5">
+        <v>69</v>
+      </c>
+      <c r="E6" s="5">
+        <v>93</v>
+      </c>
+      <c r="F6" s="5">
+        <v>60</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>2.8444285714285718</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="10">
         <v>5669</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="5">
+        <v>0</v>
+      </c>
+      <c r="C7" s="5">
+        <v>14</v>
+      </c>
+      <c r="D7" s="5">
+        <v>36</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>27</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>0.66257142857142859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="10">
         <v>8422</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="5">
+        <v>20</v>
+      </c>
+      <c r="C8" s="5">
+        <v>98</v>
+      </c>
+      <c r="D8" s="5">
+        <v>65</v>
+      </c>
+      <c r="E8" s="5">
+        <v>95</v>
+      </c>
+      <c r="F8" s="5">
+        <v>59</v>
+      </c>
+      <c r="G8" s="4">
+        <f t="shared" si="0"/>
+        <v>2.9051428571428572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="10">
         <v>8462</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="5">
+        <v>13</v>
+      </c>
+      <c r="C9" s="5">
+        <v>78.5</v>
+      </c>
+      <c r="D9" s="5">
+        <v>62.5</v>
+      </c>
+      <c r="E9" s="5">
+        <v>88</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <f t="shared" si="0"/>
+        <v>1.9247142857142854</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="10">
         <v>9304</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5">
+        <v>98</v>
+      </c>
+      <c r="D10" s="5">
+        <v>65</v>
+      </c>
+      <c r="E10" s="5">
+        <v>84</v>
+      </c>
+      <c r="F10" s="5">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="0"/>
+        <v>2.819142857142857</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="22">
-        <v>80</v>
-      </c>
-      <c r="C12" s="22">
-        <v>80</v>
-      </c>
-      <c r="D12" s="22">
-        <v>80</v>
-      </c>
-      <c r="E12" s="22">
-        <v>80</v>
-      </c>
-      <c r="F12" s="22">
-        <v>80</v>
+      <c r="B12" s="35">
+        <v>20</v>
+      </c>
+      <c r="C12" s="35">
+        <v>100</v>
+      </c>
+      <c r="D12" s="35">
+        <v>70</v>
+      </c>
+      <c r="E12" s="35">
+        <v>100</v>
+      </c>
+      <c r="F12" s="35">
+        <v>60</v>
       </c>
       <c r="G12" s="22">
-        <v>80</v>
-      </c>
-      <c r="H12" s="22">
-        <v>80</v>
-      </c>
-      <c r="I12" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="24" t="e">
-        <f>AVERAGE(B$2:B$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C13" s="24" t="e">
-        <f>AVERAGE(C$2:C$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D13" s="24" t="e">
-        <f>AVERAGE(D$2:D$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="24" t="e">
-        <f>AVERAGE(E$2:E$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F13" s="24" t="e">
-        <f>AVERAGE(F$2:F$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G13" s="24" t="e">
-        <f>AVERAGE(G$2:G$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H13" s="24" t="e">
-        <f>AVERAGE(H$2:H$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I13" s="24" t="e">
-        <f>AVERAGE(I$2:I$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="23">
+        <f t="shared" ref="B13:G13" si="1">AVERAGE(B$2:B$10)</f>
+        <v>14.355555555555554</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" si="1"/>
+        <v>73.055555555555557</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="1"/>
+        <v>53.722222222222221</v>
+      </c>
+      <c r="E13" s="23">
+        <f t="shared" si="1"/>
+        <v>77.888888888888886</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="1"/>
+        <v>43.222222222222221</v>
+      </c>
+      <c r="G13" s="23">
+        <f t="shared" si="1"/>
+        <v>2.2290317460317461</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="25" t="e">
-        <f>STDEV(B$2:B$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C14" s="25" t="e">
-        <f>STDEV(C$2:C$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D14" s="25" t="e">
-        <f>STDEV(D$2:D$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="25" t="e">
-        <f>STDEV(E$2:E$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F14" s="25" t="e">
-        <f>STDEV(F$2:F$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G14" s="25" t="e">
-        <f>STDEV(G$2:G$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H14" s="25" t="e">
-        <f>STDEV(H$2:H$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I14" s="25" t="e">
-        <f>STDEV(I$2:I$10)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="24">
+        <f t="shared" ref="B14:G14" si="2">STDEV(B$2:B$10)</f>
+        <v>7.3939352024329921</v>
+      </c>
+      <c r="C14" s="24">
+        <f t="shared" si="2"/>
+        <v>31.609378003652292</v>
+      </c>
+      <c r="D14" s="24">
+        <f t="shared" si="2"/>
+        <v>22.484871457147456</v>
+      </c>
+      <c r="E14" s="24">
+        <f t="shared" si="2"/>
+        <v>30.010183456805315</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="2"/>
+        <v>21.176506899024787</v>
+      </c>
+      <c r="G14" s="24">
+        <f t="shared" si="2"/>
+        <v>0.85109863207461078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25" t="e">
-        <f>MEDIAN(B$2:B$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="C15" s="25" t="e">
-        <f>MEDIAN(C$2:C$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="D15" s="25" t="e">
-        <f>MEDIAN(D$2:D$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="25" t="e">
-        <f>MEDIAN(E$2:E$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="F15" s="25" t="e">
-        <f>MEDIAN(F$2:F$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G15" s="25" t="e">
+      <c r="B15" s="24">
+        <f t="shared" ref="B15:G15" si="3">MEDIAN(B$2:B$10)</f>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="D15" s="24">
+        <f t="shared" si="3"/>
+        <v>65</v>
+      </c>
+      <c r="E15" s="24">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="3"/>
+        <v>57</v>
+      </c>
+      <c r="G15" s="24">
+        <f t="shared" si="3"/>
+        <v>2.819142857142857</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="24">
+        <f t="shared" ref="B16:F16" si="4">IF(SUM(B2:B10)&gt;0,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="D16" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="24">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="24">
         <f>MEDIAN(G$2:G$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="H15" s="25" t="e">
-        <f>MEDIAN(H$2:H$10)</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="I15" s="25" t="e">
-        <f>MEDIAN(I$2:I$10)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="25">
-        <f>IF(SUM(B2:B10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="25">
-        <f>IF(SUM(C2:C10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="25">
-        <f>IF(SUM(D2:D10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="25">
-        <f>IF(SUM(E2:E10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <f>IF(SUM(F2:F10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="G16" s="25">
-        <f>IF(SUM(G2:G10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="25">
-        <f>IF(SUM(H2:H10)&gt;0,1,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I16" s="25" t="e">
-        <f>MEDIAN(I$2:I$10)</f>
-        <v>#NUM!</v>
+        <v>2.819142857142857</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="17" x14ac:dyDescent="0.2">
@@ -1246,7 +1295,7 @@
   <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D10"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1279,182 +1328,200 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="23">
-        <f>Homeworks!I2</f>
-        <v>0</v>
-      </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35">
-        <f>B2+3*C2/C$12+4*D2/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F2" s="36">
-        <f t="shared" ref="F2:F10" si="0">0.5*INT(E2/0.5)+INT( ((E2-INT(E2/0.5)*0.5)/0.25))*0.5</f>
-        <v>0</v>
+      <c r="A2" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="22">
+        <f>Homeworks!G2</f>
+        <v>1.1480000000000001</v>
+      </c>
+      <c r="C2" s="36">
+        <v>34.5</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33">
+        <f t="shared" ref="E2:E10" si="0">B2+3*C2/C$12+4*D2/D$12</f>
+        <v>2.1829999999999998</v>
+      </c>
+      <c r="F2" s="34">
+        <f t="shared" ref="F2:F10" si="1">0.5*INT(E2/0.5)+INT( ((E2-INT(E2/0.5)*0.5)/0.25))*0.5</f>
+        <v>2</v>
       </c>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>1983</v>
       </c>
-      <c r="B3" s="23">
-        <f>Homeworks!I3</f>
-        <v>0</v>
-      </c>
-      <c r="C3" s="33"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35">
-        <f>B3+3*C3/C$12+4*D3/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="36">
+      <c r="B3" s="22">
+        <f>Homeworks!G3</f>
+        <v>2.8697142857142857</v>
+      </c>
+      <c r="C3" s="36">
+        <v>65.5</v>
+      </c>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.834714285714286</v>
+      </c>
+      <c r="F3" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2057</v>
       </c>
-      <c r="B4" s="23">
-        <f>Homeworks!I4</f>
-        <v>0</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="35">
-        <f>B4+3*C4/C$12+4*D4/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="36">
+      <c r="B4" s="22">
+        <f>Homeworks!G4</f>
+        <v>2.0004285714285714</v>
+      </c>
+      <c r="C4" s="36">
+        <v>54</v>
+      </c>
+      <c r="D4" s="32"/>
+      <c r="E4" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6204285714285716</v>
+      </c>
+      <c r="F4" s="34">
+        <f t="shared" si="1"/>
+        <v>3.5</v>
       </c>
       <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>2418</v>
       </c>
-      <c r="B5" s="23">
-        <f>Homeworks!I5</f>
-        <v>0</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35">
-        <f>B5+3*C5/C$12+4*D5/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="36">
+      <c r="B5" s="22">
+        <f>Homeworks!G5</f>
+        <v>2.887142857142857</v>
+      </c>
+      <c r="C5" s="36">
+        <v>82</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.347142857142857</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>3915</v>
       </c>
-      <c r="B6" s="23">
-        <f>Homeworks!I6</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35">
-        <f>B6+3*C6/C$12+4*D6/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="36">
+      <c r="B6" s="22">
+        <f>Homeworks!G6</f>
+        <v>2.8444285714285718</v>
+      </c>
+      <c r="C6" s="36">
+        <v>78</v>
+      </c>
+      <c r="D6" s="32"/>
+      <c r="E6" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.1844285714285716</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
       <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>5669</v>
       </c>
-      <c r="B7" s="23">
-        <f>Homeworks!I7</f>
-        <v>0</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35">
-        <f>B7+3*C7/C$12+4*D7/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="36">
+      <c r="B7" s="22">
+        <f>Homeworks!G7</f>
+        <v>0.66257142857142859</v>
+      </c>
+      <c r="C7" s="36">
+        <v>43</v>
+      </c>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.9525714285714286</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>8422</v>
       </c>
-      <c r="B8" s="23">
-        <f>Homeworks!I8</f>
-        <v>0</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35">
-        <f>B8+3*C8/C$12+4*D8/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="36">
+      <c r="B8" s="22">
+        <f>Homeworks!G8</f>
+        <v>2.9051428571428572</v>
+      </c>
+      <c r="C8" s="36">
+        <v>91</v>
+      </c>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6351428571428572</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>8462</v>
       </c>
-      <c r="B9" s="23">
-        <f>Homeworks!I9</f>
-        <v>0</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35">
-        <f>B9+3*C9/C$12+4*D9/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
+      <c r="B9" s="22">
+        <f>Homeworks!G9</f>
+        <v>1.9247142857142854</v>
+      </c>
+      <c r="C9" s="36">
+        <v>68</v>
+      </c>
+      <c r="D9" s="32"/>
+      <c r="E9" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9647142857142854</v>
+      </c>
+      <c r="F9" s="34">
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
       <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>9304</v>
       </c>
-      <c r="B10" s="23">
-        <f>Homeworks!I10</f>
-        <v>0</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35">
-        <f>B10+3*C10/C$12+4*D10/D$12</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="36">
+      <c r="B10" s="22">
+        <f>Homeworks!G10</f>
+        <v>2.819142857142857</v>
+      </c>
+      <c r="C10" s="36">
+        <v>84.5</v>
+      </c>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.3541428571428575</v>
+      </c>
+      <c r="F10" s="34">
+        <f t="shared" si="1"/>
+        <v>5.5</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -1471,20 +1538,20 @@
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="28">
-        <f>Homeworks!I12</f>
+      <c r="B12" s="27">
+        <f>Homeworks!G12</f>
         <v>3</v>
       </c>
-      <c r="C12" s="29">
+      <c r="C12" s="28">
         <v>100</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="29">
         <v>100</v>
       </c>
-      <c r="E12" s="31">
+      <c r="E12" s="30">
         <v>10</v>
       </c>
-      <c r="F12" s="32">
+      <c r="F12" s="31">
         <v>10</v>
       </c>
       <c r="I12" s="3"/>
@@ -1493,25 +1560,25 @@
       <c r="A13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="24">
+      <c r="B13" s="23">
         <f>AVERAGE(B$2:B$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="24" t="e">
-        <f t="shared" ref="C13:F13" si="1">AVERAGE(C$2:C$10)</f>
+        <v>2.2290317460317461</v>
+      </c>
+      <c r="C13" s="23">
+        <f t="shared" ref="C13:F13" si="2">AVERAGE(C$2:C$10)</f>
+        <v>66.722222222222229</v>
+      </c>
+      <c r="D13" s="23" t="e">
+        <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D13" s="24" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E13" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
-        <f t="shared" si="1"/>
-        <v>0</v>
+      <c r="E13" s="23">
+        <f t="shared" si="2"/>
+        <v>4.2306984126984126</v>
+      </c>
+      <c r="F13" s="23">
+        <f t="shared" si="2"/>
+        <v>4.2222222222222223</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1519,25 +1586,25 @@
       <c r="A14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="24">
         <f>STDEV(B$2:B$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="25" t="e">
-        <f t="shared" ref="C14:F14" si="2">STDEV(C$2:C$10)</f>
+        <v>0.85109863207461078</v>
+      </c>
+      <c r="C14" s="24">
+        <f t="shared" ref="C14:F14" si="3">STDEV(C$2:C$10)</f>
+        <v>19.468100689190109</v>
+      </c>
+      <c r="D14" s="24" t="e">
+        <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D14" s="25" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E14" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <f t="shared" si="2"/>
-        <v>0</v>
+      <c r="E14" s="24">
+        <f t="shared" si="3"/>
+        <v>1.3955995300178132</v>
+      </c>
+      <c r="F14" s="24">
+        <f t="shared" si="3"/>
+        <v>1.4385563751360051</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1545,25 +1612,25 @@
       <c r="A15" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="24">
         <f>MEDIAN(B$2:B$10)</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="25" t="e">
-        <f t="shared" ref="C15:F15" si="3">MEDIAN(C$2:C$10)</f>
+        <v>2.819142857142857</v>
+      </c>
+      <c r="C15" s="24">
+        <f t="shared" ref="C15:F15" si="4">MEDIAN(C$2:C$10)</f>
+        <v>68</v>
+      </c>
+      <c r="D15" s="24" t="e">
+        <f t="shared" si="4"/>
         <v>#NUM!</v>
       </c>
-      <c r="D15" s="25" t="e">
-        <f t="shared" si="3"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="E15" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <f t="shared" si="3"/>
-        <v>0</v>
+      <c r="E15" s="24">
+        <f t="shared" si="4"/>
+        <v>4.834714285714286</v>
+      </c>
+      <c r="F15" s="24">
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/phy331/Grades/grades_report_2023.xlsx
+++ b/phy331/Grades/grades_report_2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ptohos/Documents/MyCourses/FYS331/2023/Grades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C2E363-2678-1B4C-83CD-5616BC8CC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADD0393-856A-A843-8DA9-743F29BEBF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13420" yWindow="7600" windowWidth="20340" windowHeight="14520" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13160" yWindow="2640" windowWidth="20340" windowHeight="14520" tabRatio="947" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Homeworks" sheetId="27" r:id="rId1"/>
@@ -434,9 +434,6 @@
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -447,6 +444,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1115,19 +1115,19 @@
       <c r="A12" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="35">
+      <c r="B12" s="34">
         <v>20</v>
       </c>
-      <c r="C12" s="35">
+      <c r="C12" s="34">
         <v>100</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="34">
         <v>70</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="34">
         <v>100</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="34">
         <v>60</v>
       </c>
       <c r="G12" s="22">
@@ -1335,17 +1335,19 @@
         <f>Homeworks!G2</f>
         <v>1.1480000000000001</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>34.5</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33">
+      <c r="D2" s="36">
+        <v>8</v>
+      </c>
+      <c r="E2" s="32">
         <f t="shared" ref="E2:E10" si="0">B2+3*C2/C$12+4*D2/D$12</f>
-        <v>2.1829999999999998</v>
-      </c>
-      <c r="F2" s="34">
+        <v>5.383</v>
+      </c>
+      <c r="F2" s="33">
         <f t="shared" ref="F2:F10" si="1">0.5*INT(E2/0.5)+INT( ((E2-INT(E2/0.5)*0.5)/0.25))*0.5</f>
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="I2" s="3"/>
     </row>
@@ -1357,17 +1359,19 @@
         <f>Homeworks!G3</f>
         <v>2.8697142857142857</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="35">
         <v>65.5</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33">
+      <c r="D3" s="36">
+        <v>9.5</v>
+      </c>
+      <c r="E3" s="32">
         <f t="shared" si="0"/>
-        <v>4.834714285714286</v>
-      </c>
-      <c r="F3" s="34">
+        <v>8.6347142857142849</v>
+      </c>
+      <c r="F3" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="I3" s="3"/>
     </row>
@@ -1379,17 +1383,19 @@
         <f>Homeworks!G4</f>
         <v>2.0004285714285714</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="35">
         <v>54</v>
       </c>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33">
+      <c r="D4" s="36">
+        <v>8</v>
+      </c>
+      <c r="E4" s="32">
         <f t="shared" si="0"/>
-        <v>3.6204285714285716</v>
-      </c>
-      <c r="F4" s="34">
+        <v>6.8204285714285717</v>
+      </c>
+      <c r="F4" s="33">
         <f t="shared" si="1"/>
-        <v>3.5</v>
+        <v>7</v>
       </c>
       <c r="I4" s="3"/>
     </row>
@@ -1401,17 +1407,19 @@
         <f>Homeworks!G5</f>
         <v>2.887142857142857</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="35">
         <v>82</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33">
+      <c r="D5" s="36">
+        <v>10</v>
+      </c>
+      <c r="E5" s="32">
         <f t="shared" si="0"/>
-        <v>5.347142857142857</v>
-      </c>
-      <c r="F5" s="34">
+        <v>9.3471428571428561</v>
+      </c>
+      <c r="F5" s="33">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="I5" s="3"/>
     </row>
@@ -1423,17 +1431,19 @@
         <f>Homeworks!G6</f>
         <v>2.8444285714285718</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="35">
         <v>78</v>
       </c>
-      <c r="D6" s="32"/>
-      <c r="E6" s="33">
+      <c r="D6" s="36">
+        <v>9.5</v>
+      </c>
+      <c r="E6" s="32">
         <f t="shared" si="0"/>
-        <v>5.1844285714285716</v>
-      </c>
-      <c r="F6" s="34">
+        <v>8.9844285714285714</v>
+      </c>
+      <c r="F6" s="33">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I6" s="3"/>
     </row>
@@ -1445,17 +1455,19 @@
         <f>Homeworks!G7</f>
         <v>0.66257142857142859</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="35">
         <v>43</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33">
+      <c r="D7" s="36">
+        <v>7</v>
+      </c>
+      <c r="E7" s="32">
         <f t="shared" si="0"/>
-        <v>1.9525714285714286</v>
-      </c>
-      <c r="F7" s="34">
+        <v>4.7525714285714287</v>
+      </c>
+      <c r="F7" s="33">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I7" s="3"/>
     </row>
@@ -1467,17 +1479,19 @@
         <f>Homeworks!G8</f>
         <v>2.9051428571428572</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="35">
         <v>91</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="33">
+      <c r="D8" s="36">
+        <v>10</v>
+      </c>
+      <c r="E8" s="32">
         <f t="shared" si="0"/>
-        <v>5.6351428571428572</v>
-      </c>
-      <c r="F8" s="34">
+        <v>9.6351428571428563</v>
+      </c>
+      <c r="F8" s="33">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>9.5</v>
       </c>
       <c r="I8" s="3"/>
     </row>
@@ -1489,17 +1503,19 @@
         <f>Homeworks!G9</f>
         <v>1.9247142857142854</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="35">
         <v>68</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="33">
+      <c r="D9" s="36">
+        <v>9</v>
+      </c>
+      <c r="E9" s="32">
         <f t="shared" si="0"/>
-        <v>3.9647142857142854</v>
-      </c>
-      <c r="F9" s="34">
+        <v>7.5647142857142855</v>
+      </c>
+      <c r="F9" s="33">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="I9" s="3"/>
     </row>
@@ -1511,17 +1527,19 @@
         <f>Homeworks!G10</f>
         <v>2.819142857142857</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="35">
         <v>84.5</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="33">
+      <c r="D10" s="36">
+        <v>9.5</v>
+      </c>
+      <c r="E10" s="32">
         <f t="shared" si="0"/>
-        <v>5.3541428571428575</v>
-      </c>
-      <c r="F10" s="34">
+        <v>9.1541428571428582</v>
+      </c>
+      <c r="F10" s="33">
         <f t="shared" si="1"/>
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="I10" s="3"/>
     </row>
@@ -1546,7 +1564,7 @@
         <v>100</v>
       </c>
       <c r="D12" s="29">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="E12" s="30">
         <v>10</v>
@@ -1568,17 +1586,17 @@
         <f t="shared" ref="C13:F13" si="2">AVERAGE(C$2:C$10)</f>
         <v>66.722222222222229</v>
       </c>
-      <c r="D13" s="23" t="e">
+      <c r="D13" s="23">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+        <v>8.9444444444444446</v>
       </c>
       <c r="E13" s="23">
         <f t="shared" si="2"/>
-        <v>4.2306984126984126</v>
+        <v>7.808476190476191</v>
       </c>
       <c r="F13" s="23">
         <f t="shared" si="2"/>
-        <v>4.2222222222222223</v>
+        <v>7.833333333333333</v>
       </c>
       <c r="I13" s="3"/>
     </row>
@@ -1594,17 +1612,17 @@
         <f t="shared" ref="C14:F14" si="3">STDEV(C$2:C$10)</f>
         <v>19.468100689190109</v>
       </c>
-      <c r="D14" s="24" t="e">
+      <c r="D14" s="24">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>1.0441636738451359</v>
       </c>
       <c r="E14" s="24">
         <f t="shared" si="3"/>
-        <v>1.3955995300178132</v>
+        <v>1.7971402637387568</v>
       </c>
       <c r="F14" s="24">
         <f t="shared" si="3"/>
-        <v>1.4385563751360051</v>
+        <v>1.695582495781317</v>
       </c>
       <c r="I14" s="3"/>
     </row>
@@ -1620,17 +1638,17 @@
         <f t="shared" ref="C15:F15" si="4">MEDIAN(C$2:C$10)</f>
         <v>68</v>
       </c>
-      <c r="D15" s="24" t="e">
+      <c r="D15" s="24">
         <f t="shared" si="4"/>
-        <v>#NUM!</v>
+        <v>9.5</v>
       </c>
       <c r="E15" s="24">
         <f t="shared" si="4"/>
-        <v>4.834714285714286</v>
+        <v>8.6347142857142849</v>
       </c>
       <c r="F15" s="24">
         <f t="shared" si="4"/>
-        <v>5</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
